--- a/html/resources/aoiConditions/train1Block21Test.xlsx
+++ b/html/resources/aoiConditions/train1Block21Test.xlsx
@@ -34,28 +34,28 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/23_patoko1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/23_lemon.png</t>
-  </si>
-  <si>
-    <t>pngimages/27_kiwi.png</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/25_apple.png</t>
-  </si>
-  <si>
-    <t>pngimages/20_pizza.png</t>
+    <t>trainingaudio/11_tokiko1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/11_compass.png</t>
+  </si>
+  <si>
+    <t>pngimages/13_toast.png</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/10_tokiti1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/17_cracker.png</t>
+  </si>
+  <si>
+    <t>pngimages/10_backpack.png</t>
   </si>
 </sst>
 </file>
@@ -473,10 +473,10 @@
         <v>13</v>
       </c>
       <c r="E3">
+        <v>-0.5</v>
+      </c>
+      <c r="F3">
         <v>0.5</v>
-      </c>
-      <c r="F3">
-        <v>-0.5</v>
       </c>
     </row>
   </sheetData>
